--- a/data/trans_dic/P21B_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P21B_R-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9433499778052681</v>
+        <v>0.9478871447152633</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9581034405795321</v>
+        <v>0.9542783866324961</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9025588638297554</v>
+        <v>0.9049165844206573</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.941095535036151</v>
+        <v>0.940377844344868</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.9281912576252044</v>
+        <v>0.9312455475264031</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.9663720389436388</v>
+        <v>0.9658430601299104</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.9463619482052333</v>
+        <v>0.9449310638628883</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.8934528619335556</v>
+        <v>0.8914217593684889</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.9446333810731307</v>
+        <v>0.9423827853449471</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.9732505955026487</v>
+        <v>0.9710991196918528</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.9400062939304908</v>
+        <v>0.9411789060072629</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.924655195254225</v>
+        <v>0.9266902356831772</v>
       </c>
     </row>
     <row r="6">
@@ -755,37 +755,37 @@
         <v>1</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9947850618175175</v>
+        <v>0.9960260184588181</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.975272709457487</v>
+        <v>0.9754088932424675</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9777932801456356</v>
+        <v>0.9778027561160085</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9944044066612772</v>
+        <v>0.9927770081724683</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9887246171412154</v>
+        <v>0.9885274692159205</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9630567858977168</v>
+        <v>0.9628794773360027</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9796217851773299</v>
+        <v>0.979183323051095</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.992420640109334</v>
+        <v>0.9919429475338614</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.9774866955919922</v>
+        <v>0.9773110456854851</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.9719042294466397</v>
+        <v>0.9721235120216433</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.9458146093602674</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.9789704482637452</v>
+        <v>0.978970448263745</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.9848094616150519</v>
@@ -821,7 +821,7 @@
         <v>0.9274895934920745</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.9374518607735597</v>
+        <v>0.9374518607735596</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.9685538559357711</v>
@@ -833,7 +833,7 @@
         <v>0.9353389888623904</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.954043407212061</v>
+        <v>0.9540434072120612</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.9060620982775111</v>
+        <v>0.9031767431272764</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9582135551374424</v>
+        <v>0.9558291668270654</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8908467884165037</v>
+        <v>0.8972146925578782</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.9478332333052372</v>
+        <v>0.9441755041166553</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.9551889470174492</v>
+        <v>0.9566244181179215</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.9345944355125582</v>
+        <v>0.9349803735635553</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8808123181875356</v>
+        <v>0.8807335649951389</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.9063777617676666</v>
+        <v>0.9062631783756914</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.9417626315317328</v>
+        <v>0.9476413982401278</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.9555171692739998</v>
+        <v>0.9541902351394532</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.9007859236924708</v>
+        <v>0.9019676243162226</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.9337179721546928</v>
+        <v>0.9329022595545553</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9739480510027535</v>
+        <v>0.973236461020896</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9952106016128696</v>
+        <v>0.9952019934234057</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9775215877408145</v>
+        <v>0.9802292731698053</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9944207207900111</v>
+        <v>0.9945053167313748</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.995930978453491</v>
+        <v>0.9959418560540989</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9862118637742598</v>
+        <v>0.9863286143575111</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9645735579037407</v>
+        <v>0.9591001681428725</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9605668057765054</v>
+        <v>0.9606832186080143</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.9820113050021102</v>
+        <v>0.9840667353889767</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.9880673811375695</v>
+        <v>0.987507827931042</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.9594344308007496</v>
+        <v>0.9598182228948544</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.9716534741377746</v>
+        <v>0.9704872202617246</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.8767742647586514</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.922598750281132</v>
+        <v>0.9225987502811318</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.9768027142520862</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8902490180205956</v>
+        <v>0.8967425786424276</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9621157120083117</v>
+        <v>0.9672230878390895</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7908510979301708</v>
+        <v>0.7965920618612786</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8792783607101066</v>
+        <v>0.8814360583964781</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.945848517026693</v>
+        <v>0.9463307265300017</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.9086588289673957</v>
+        <v>0.9125535357699164</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8200828336789765</v>
+        <v>0.8184818350318417</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.896037279660388</v>
+        <v>0.8999004121165802</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.9369643143946497</v>
+        <v>0.9346732930817352</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.9473630757582004</v>
+        <v>0.9430586601651385</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.8376022840585106</v>
+        <v>0.8331114477809782</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.8995833446296219</v>
+        <v>0.898755268132568</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9708883987044776</v>
+        <v>0.9745328632003704</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9277611652037784</v>
+        <v>0.9286173233563587</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9516014590453067</v>
+        <v>0.9524140809685914</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9916890678651127</v>
+        <v>0.9910013418759188</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9761659410683542</v>
+        <v>0.9753243114775615</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9280817844254241</v>
+        <v>0.9268352109408173</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.953752017714116</v>
+        <v>0.9529523607898774</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9799417313539255</v>
+        <v>0.9780965839379974</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.9841599975598727</v>
+        <v>0.9841954991393099</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.9167049159217358</v>
+        <v>0.9173333312326877</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.9460702365861418</v>
+        <v>0.9448792600426339</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.8718708095864984</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.863327294453206</v>
+        <v>0.8633272944532059</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.9546113270869829</v>
@@ -1105,7 +1105,7 @@
         <v>0.8888549606545703</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.847225236687006</v>
+        <v>0.8472252366870058</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.931854860401124</v>
+        <v>0.912178378935506</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.812995565031983</v>
+        <v>0.8034416323223291</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8325509072961332</v>
+        <v>0.8312063558064637</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7649713236349427</v>
+        <v>0.7584676648749111</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8309903072261381</v>
+        <v>0.8288592728443417</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.8702005394546777</v>
+        <v>0.8829219508843672</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7952855294814413</v>
+        <v>0.7831120396691252</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.8136052893355219</v>
+        <v>0.8036668413749081</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.9135971365335374</v>
+        <v>0.9130546496934154</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.8659284619022025</v>
+        <v>0.8648933616760963</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.8350807140153853</v>
+        <v>0.8353591024760971</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.8075086819487581</v>
+        <v>0.8061055614847686</v>
       </c>
     </row>
     <row r="15">
@@ -1163,37 +1163,37 @@
         <v>1</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9622404724528953</v>
+        <v>0.9597881334725415</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9598200333801623</v>
+        <v>0.9570484575374231</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8818566395419858</v>
+        <v>0.8811548471243297</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9704692292643849</v>
+        <v>0.9697545195782094</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.9792104473846573</v>
+        <v>0.9798367019178306</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.932115532569065</v>
+        <v>0.9308475686909057</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9057274259403927</v>
+        <v>0.9010362414292272</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.9810577425698441</v>
+        <v>0.9808464040188384</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.955831955936865</v>
+        <v>0.955265012984048</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.9312641137193343</v>
+        <v>0.9328372556957393</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.8806960286087721</v>
+        <v>0.8823750792313285</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.9269430586732071</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.9178404998023831</v>
+        <v>0.917840499802383</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.9643259993725907</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.9375628100574139</v>
+        <v>0.9369591825953861</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9602671704726803</v>
+        <v>0.9611704513526692</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9028779008031331</v>
+        <v>0.8989643806425254</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8923642613233232</v>
+        <v>0.8904696960450011</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9529893166307277</v>
+        <v>0.9535457879913822</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.9559505120732088</v>
+        <v>0.953914386512364</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9041297706022089</v>
+        <v>0.9073542229542738</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.8986245342817645</v>
+        <v>0.898712557505401</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.9529028185446059</v>
+        <v>0.9526937781798752</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.9620065328230064</v>
+        <v>0.9616434810629937</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.9106414597054823</v>
+        <v>0.911695666610074</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.9021413029115185</v>
+        <v>0.9049544684329596</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.972440872774966</v>
+        <v>0.9723936710707487</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9855654467826044</v>
+        <v>0.9869710629477844</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9470471419060997</v>
+        <v>0.9462438052863942</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9380940011554798</v>
+        <v>0.9368156616966391</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9792960442587429</v>
+        <v>0.9791526337043807</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.9787535279399699</v>
+        <v>0.9782902156296325</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9443646912616576</v>
+        <v>0.945768386486615</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.932561027814902</v>
+        <v>0.9334857526692949</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.9734776005728575</v>
+        <v>0.9733385494051281</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.9790255524386789</v>
+        <v>0.9794082192119178</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.9408781934002837</v>
+        <v>0.9421282678343201</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.9301229916602655</v>
+        <v>0.9315436601565954</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>103307</v>
+        <v>103804</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>225886</v>
+        <v>224984</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>183828</v>
+        <v>184308</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>116122</v>
+        <v>116033</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>264455</v>
+        <v>265325</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>381086</v>
+        <v>380877</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>265492</v>
+        <v>265091</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>171801</v>
+        <v>171411</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>372587</v>
+        <v>371699</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>613256</v>
+        <v>611900</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>455164</v>
+        <v>455732</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>291894</v>
+        <v>292537</v>
       </c>
     </row>
     <row r="7">
@@ -1647,37 +1647,37 @@
         <v>109511</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>234535</v>
+        <v>234827</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>198638</v>
+        <v>198665</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>123390</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>278587</v>
+        <v>278590</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>392140</v>
+        <v>391499</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>277377</v>
+        <v>277321</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>185185</v>
+        <v>185151</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>386387</v>
+        <v>386214</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>625335</v>
+        <v>625034</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>473313</v>
+        <v>473228</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>306810</v>
+        <v>306879</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>164954</v>
+        <v>164429</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>196236</v>
+        <v>195748</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>131547</v>
+        <v>132487</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>160903</v>
+        <v>160282</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>221321</v>
+        <v>221654</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>263103</v>
+        <v>263212</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>173583</v>
+        <v>173567</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>231168</v>
+        <v>231139</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>389664</v>
+        <v>392096</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>464678</v>
+        <v>464032</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>310533</v>
+        <v>310941</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>396648</v>
+        <v>396302</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>177313</v>
+        <v>177184</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>203813</v>
+        <v>203811</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>144346</v>
+        <v>144746</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>168812</v>
+        <v>168826</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>230761</v>
+        <v>230764</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>277634</v>
+        <v>277667</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>190089</v>
+        <v>189011</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>244989</v>
+        <v>245018</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>406317</v>
+        <v>407167</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>480507</v>
+        <v>480235</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>330752</v>
+        <v>330884</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>412763</v>
+        <v>412268</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>159145</v>
+        <v>160306</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>172425</v>
+        <v>173340</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>88128</v>
+        <v>88767</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>174588</v>
+        <v>175016</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>223222</v>
+        <v>223336</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>175752</v>
+        <v>176505</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>129257</v>
+        <v>129005</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>237970</v>
+        <v>238996</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>388621</v>
+        <v>387671</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>353019</v>
+        <v>351415</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>225356</v>
+        <v>224148</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>417532</v>
+        <v>417147</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>173561</v>
+        <v>174212</v>
       </c>
       <c r="D15" s="6" t="n">
         <v>179214</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>103384</v>
+        <v>103480</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>188948</v>
+        <v>189109</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>234041</v>
+        <v>233878</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>188809</v>
+        <v>188646</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>146280</v>
+        <v>146083</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>253298</v>
+        <v>253086</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>406447</v>
+        <v>405681</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>366730</v>
+        <v>366744</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>246639</v>
+        <v>246808</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>439108</v>
+        <v>438555</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>74889</v>
+        <v>73308</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>66491</v>
+        <v>65709</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>70630</v>
+        <v>70516</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>177147</v>
+        <v>175641</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>49087</v>
+        <v>48961</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>88888</v>
+        <v>90187</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>86902</v>
+        <v>85572</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>169543</v>
+        <v>167472</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>127389</v>
+        <v>127314</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>159270</v>
+        <v>159080</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>162096</v>
+        <v>162150</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>355272</v>
+        <v>354654</v>
       </c>
     </row>
     <row r="19">
@@ -2187,37 +2187,37 @@
         <v>80366</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>78697</v>
+        <v>78496</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>81427</v>
+        <v>81192</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>204215</v>
+        <v>204053</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>57326</v>
+        <v>57283</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>100022</v>
+        <v>100086</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>101854</v>
+        <v>101716</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>188740</v>
+        <v>187762</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>136796</v>
+        <v>136766</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>175806</v>
+        <v>175702</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>180766</v>
+        <v>181071</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>387471</v>
+        <v>388210</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>516313</v>
+        <v>515981</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>673682</v>
+        <v>674316</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>494424</v>
+        <v>492281</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>645431</v>
+        <v>644061</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>773532</v>
+        <v>773984</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>928636</v>
+        <v>926658</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>673122</v>
+        <v>675522</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>827904</v>
+        <v>827985</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1298223</v>
+        <v>1297939</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1609422</v>
+        <v>1608814</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1176646</v>
+        <v>1178008</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1483646</v>
+        <v>1488273</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>535520</v>
+        <v>535494</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>691430</v>
+        <v>692416</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>518612</v>
+        <v>518172</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>678507</v>
+        <v>677582</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>794885</v>
+        <v>794768</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>950788</v>
+        <v>950338</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>703077</v>
+        <v>704122</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>859169</v>
+        <v>860021</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1326254</v>
+        <v>1326065</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1637894</v>
+        <v>1638534</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1215715</v>
+        <v>1217331</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1529664</v>
+        <v>1532001</v>
       </c>
     </row>
     <row r="24">
